--- a/Facility folder/Rachuonyo South/Rachuonyo South score.xlsx
+++ b/Facility folder/Rachuonyo South/Rachuonyo South score.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GEORGE OMONDI\Desktop\GitHub\Homabay-DQA-project\Facility folder\Rachuonyo South\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf784fce6dfbb4/Desktop/github project/Homabay-DQA-project/Facility folder/Rachuonyo South/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C28CD9-DDD4-4E90-9CA5-AD6E6EFB63DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E9C28CD9-DDD4-4E90-9CA5-AD6E6EFB63DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58023222-3E2D-42CD-8406-976A57024F0A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="856" xr2:uid="{8DE6B688-5587-4D82-9223-9C8688AC3068}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="856" activeTab="1" xr2:uid="{8DE6B688-5587-4D82-9223-9C8688AC3068}"/>
   </bookViews>
   <sheets>
     <sheet name="APPENDED" sheetId="1" r:id="rId1"/>
-    <sheet name="YALA" sheetId="20" r:id="rId2"/>
-    <sheet name="WIRE" sheetId="19" r:id="rId3"/>
-    <sheet name="SWINDON" sheetId="18" r:id="rId4"/>
-    <sheet name="SINO" sheetId="17" r:id="rId5"/>
-    <sheet name="SIMBI" sheetId="16" r:id="rId6"/>
-    <sheet name="RTC" sheetId="15" r:id="rId7"/>
-    <sheet name="RDH" sheetId="14" r:id="rId8"/>
-    <sheet name="OREDHO" sheetId="13" r:id="rId9"/>
-    <sheet name="OJWANDO" sheetId="12" r:id="rId10"/>
-    <sheet name="NYANGIELA" sheetId="11" r:id="rId11"/>
-    <sheet name="NYALGOSI" sheetId="10" r:id="rId12"/>
-    <sheet name="NYABOLA" sheetId="9" r:id="rId13"/>
-    <sheet name="MIDLAND" sheetId="8" r:id="rId14"/>
-    <sheet name="MATATA" sheetId="7" r:id="rId15"/>
-    <sheet name="KWOYO" sheetId="6" r:id="rId16"/>
-    <sheet name="AGAWO" sheetId="2" r:id="rId17"/>
-    <sheet name="HAWI" sheetId="3" r:id="rId18"/>
-    <sheet name="KAMAGAK" sheetId="4" r:id="rId19"/>
-    <sheet name="KOYWECH" sheetId="5" r:id="rId20"/>
+    <sheet name="OMBEK" sheetId="21" r:id="rId2"/>
+    <sheet name="YALA" sheetId="20" r:id="rId3"/>
+    <sheet name="WIRE" sheetId="19" r:id="rId4"/>
+    <sheet name="SWINDON" sheetId="18" r:id="rId5"/>
+    <sheet name="SINO" sheetId="17" r:id="rId6"/>
+    <sheet name="SIMBI" sheetId="16" r:id="rId7"/>
+    <sheet name="RTC" sheetId="15" r:id="rId8"/>
+    <sheet name="RDH" sheetId="14" r:id="rId9"/>
+    <sheet name="OREDHO" sheetId="13" r:id="rId10"/>
+    <sheet name="OJWANDO" sheetId="12" r:id="rId11"/>
+    <sheet name="NYANGIELA" sheetId="11" r:id="rId12"/>
+    <sheet name="NYALGOSI" sheetId="10" r:id="rId13"/>
+    <sheet name="NYABOLA" sheetId="9" r:id="rId14"/>
+    <sheet name="MIDLAND" sheetId="8" r:id="rId15"/>
+    <sheet name="MATATA" sheetId="7" r:id="rId16"/>
+    <sheet name="KWOYO" sheetId="6" r:id="rId17"/>
+    <sheet name="AGAWO" sheetId="2" r:id="rId18"/>
+    <sheet name="HAWI" sheetId="3" r:id="rId19"/>
+    <sheet name="KAMAGAK" sheetId="4" r:id="rId20"/>
+    <sheet name="KOYWECH" sheetId="5" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14024" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14511" uniqueCount="82">
   <si>
     <t>Service</t>
   </si>
@@ -276,6 +277,30 @@
   <si>
     <t>YALA</t>
   </si>
+  <si>
+    <t>Apr-23</t>
+  </si>
+  <si>
+    <t>May-23</t>
+  </si>
+  <si>
+    <t>Jun-23</t>
+  </si>
+  <si>
+    <t>2nd ANC</t>
+  </si>
+  <si>
+    <t>5 ANC</t>
+  </si>
+  <si>
+    <t>MR3</t>
+  </si>
+  <si>
+    <t>Malaria 5</t>
+  </si>
+  <si>
+    <t>OMBEK</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +352,170 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -341,8 +529,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}" name="RACHUONYO_SOUTH" displayName="RACHUONYO_SOUTH" ref="A1:G1312" totalsRowShown="0" headerRowCellStyle="Percent" dataCellStyle="Percent">
-  <autoFilter ref="A1:G1312" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}" name="RACHUONYO_SOUTH" displayName="RACHUONYO_SOUTH" ref="A1:G1360" totalsRowShown="0" headerRowCellStyle="Percent" dataCellStyle="Percent">
+  <autoFilter ref="A1:G1360" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E2183BC8-FADB-47FC-8323-86FAD9C10B4F}" name="Service" dataCellStyle="Percent"/>
     <tableColumn id="7" xr3:uid="{0AFC9166-194D-4BA5-86CD-55652BCA581F}" name="Facility" dataCellStyle="Percent"/>
@@ -357,6 +545,22 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{E2038DD8-8D70-49E4-9CA8-5496E2EA63BF}" name="OJWANDO14" displayName="OJWANDO14" ref="A1:G70" totalsRowShown="0">
+  <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{011C79AE-5B2D-4F21-8B4E-01C466075752}" name="Service"/>
+    <tableColumn id="7" xr3:uid="{2BAA3ED3-B0B4-4477-8014-CE533653310F}" name="Facility"/>
+    <tableColumn id="2" xr3:uid="{9DFB5583-037B-41E9-A9C5-92A7D4E4A786}" name="Indicator"/>
+    <tableColumn id="3" xr3:uid="{6816A891-8916-4119-AEBC-D71F73869C68}" name="Comparison"/>
+    <tableColumn id="4" xr3:uid="{B088EAA4-2DFC-40B4-AE4F-4CC26CADDB4B}" name="Jan-24" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{A5183495-18FF-4F19-A3A2-A0CED4FC9ABE}" name="Feb-24" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{4082E558-2556-46C6-9DF8-3CF03A10ECE8}" name="Mar-24" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{18EBA4C9-8A6C-4E34-9768-805C48CC1BE4}" name="OJWANDO" displayName="OJWANDO" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -372,7 +576,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FE757A52-30AB-44E1-A47E-67A260CE88BD}" name="MIDLAND101112" displayName="MIDLAND101112" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -388,7 +592,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E7A6829D-7C58-42AE-A649-CD56BE5182D0}" name="MIDLAND1011" displayName="MIDLAND1011" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -404,7 +608,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3CC84074-625D-415F-B4FD-6953A159980F}" name="MIDLAND10" displayName="MIDLAND10" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -420,7 +624,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F8670211-3617-40DF-B183-A0C8D3D22D64}" name="MIDLAND" displayName="MIDLAND" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -436,7 +640,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B28BBA85-4195-4E12-A2A8-59C4992EB574}" name="KOYWECH78" displayName="KOYWECH78" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -452,7 +656,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B32BA267-21F6-454E-A5D1-7B44E1BD5B4D}" name="KOYWECH7" displayName="KOYWECH7" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -468,7 +672,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B35B2993-1C12-49ED-AF39-5CFE6DC0847F}" name="AGAWO" displayName="AGAWO" ref="A1:G70" totalsRowShown="0" dataCellStyle="Percent">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -484,7 +688,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{055A3346-0E9E-4C29-AF17-A77B8134130E}" name="HAWI" displayName="HAWI" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -500,7 +704,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{EF9F0B17-E5E3-447E-A529-28C1665CF63D}" name="Table21" displayName="Table21" ref="A1:G49" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" headerRowCellStyle="Percent" dataCellStyle="Percent">
+  <autoFilter ref="A1:G49" xr:uid="{EF9F0B17-E5E3-447E-A529-28C1665CF63D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{ABF91FD2-6A58-42A4-90E9-233F5446814A}" name="Service" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{C3F05099-053B-4806-A19F-B9CB49095927}" name="Facility" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{665FA597-FC66-42BF-B6F0-A694810BA287}" name="Indicators" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{68637000-B319-4A69-B870-8DD5E1DA107B}" name="Comparison" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{126E1C06-1D25-4D8D-89EA-F5CA5BDF5F40}" name="Apr-23" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{5838A24A-9C1C-4388-8E34-6688C00BB5EF}" name="May-23" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{ABDA4DA1-FA0F-4A6E-83EB-B724247351BC}" name="Jun-23" dataDxfId="3" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{315AD063-70C8-4BFA-A291-11D6A085E262}" name="KAMAGAK" displayName="KAMAGAK" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -516,23 +736,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3CFC400E-1314-4B43-AA52-42F08653540B}" name="WIRE21" displayName="WIRE21" ref="A1:G70" totalsRowShown="0">
-  <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2C9FD8E6-627D-4479-A0F7-6B824BB972C8}" name="Service"/>
-    <tableColumn id="7" xr3:uid="{EFBF7FC7-FE78-46BC-B34A-2967B0744020}" name="Facility"/>
-    <tableColumn id="2" xr3:uid="{10E63C5F-7269-4541-9AF2-46AB719E584F}" name="Indicator"/>
-    <tableColumn id="3" xr3:uid="{3798552A-05D7-42C9-878A-8D13F8583E57}" name="Comparison"/>
-    <tableColumn id="4" xr3:uid="{9316B0D9-DDD6-478D-AFF7-4FCE8F290715}" name="Jan-24" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{DC75AF6C-8CE6-4316-B638-10C84430767F}" name="Feb-24" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{A9DFBC4F-3731-4B95-897D-245B07EC6939}" name="Mar-24" dataCellStyle="Percent"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{54C81BB7-AE7C-4C36-BCA1-89AD18EE5E04}" name="KOYWECH" displayName="KOYWECH" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -549,6 +753,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3CFC400E-1314-4B43-AA52-42F08653540B}" name="WIRE21" displayName="WIRE21" ref="A1:G70" totalsRowShown="0">
+  <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2C9FD8E6-627D-4479-A0F7-6B824BB972C8}" name="Service"/>
+    <tableColumn id="7" xr3:uid="{EFBF7FC7-FE78-46BC-B34A-2967B0744020}" name="Facility"/>
+    <tableColumn id="2" xr3:uid="{10E63C5F-7269-4541-9AF2-46AB719E584F}" name="Indicator"/>
+    <tableColumn id="3" xr3:uid="{3798552A-05D7-42C9-878A-8D13F8583E57}" name="Comparison"/>
+    <tableColumn id="4" xr3:uid="{9316B0D9-DDD6-478D-AFF7-4FCE8F290715}" name="Jan-24" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{DC75AF6C-8CE6-4316-B638-10C84430767F}" name="Feb-24" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{A9DFBC4F-3731-4B95-897D-245B07EC6939}" name="Mar-24" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B23F0B8E-AD93-4892-8B4D-4EC09399A64A}" name="WIRE" displayName="WIRE" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -564,7 +784,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{E181E3F5-2EFE-4A8B-9D97-E193DBDE4AEB}" name="OJWANDO141516171819" displayName="OJWANDO141516171819" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -580,7 +800,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0A9D2062-DAF7-42F7-97AF-7C1221B7822A}" name="OJWANDO1415161718" displayName="OJWANDO1415161718" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -596,7 +816,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{964FC5B8-C644-4358-94FA-CFB5A6339E22}" name="OJWANDO14151617" displayName="OJWANDO14151617" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -612,7 +832,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{4714581B-8D0C-416B-9323-8638566BD7DC}" name="OJWANDO141516" displayName="OJWANDO141516" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -628,7 +848,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D1C82D26-49A1-488F-8114-0708A4D25CD4}" name="OJWANDO1415" displayName="OJWANDO1415" ref="A1:G70" totalsRowShown="0">
   <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
   <tableColumns count="7">
@@ -639,22 +859,6 @@
     <tableColumn id="4" xr3:uid="{A47DDFBF-CC16-4CC5-924B-F89FE9924476}" name="Jan-24" dataCellStyle="Percent"/>
     <tableColumn id="5" xr3:uid="{36A7D7B0-111B-4FD4-B5F4-CFBEA7F54F56}" name="Feb-24" dataCellStyle="Percent"/>
     <tableColumn id="6" xr3:uid="{50E7C42A-4AE1-4AA9-BBAA-D89CAD3AA8DC}" name="Mar-24" dataCellStyle="Percent"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{E2038DD8-8D70-49E4-9CA8-5496E2EA63BF}" name="OJWANDO14" displayName="OJWANDO14" ref="A1:G70" totalsRowShown="0">
-  <autoFilter ref="A1:G70" xr:uid="{1F918AA2-0501-4331-91EF-778902E6022F}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{011C79AE-5B2D-4F21-8B4E-01C466075752}" name="Service"/>
-    <tableColumn id="7" xr3:uid="{2BAA3ED3-B0B4-4477-8014-CE533653310F}" name="Facility"/>
-    <tableColumn id="2" xr3:uid="{9DFB5583-037B-41E9-A9C5-92A7D4E4A786}" name="Indicator"/>
-    <tableColumn id="3" xr3:uid="{6816A891-8916-4119-AEBC-D71F73869C68}" name="Comparison"/>
-    <tableColumn id="4" xr3:uid="{B088EAA4-2DFC-40B4-AE4F-4CC26CADDB4B}" name="Jan-24" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{A5183495-18FF-4F19-A3A2-A0CED4FC9ABE}" name="Feb-24" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{4082E558-2556-46C6-9DF8-3CF03A10ECE8}" name="Mar-24" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -957,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04428639-0672-4A4C-B990-8BA518AA8837}">
-  <dimension ref="A1:G1312"/>
+  <dimension ref="A1:G1360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1107" workbookViewId="0">
-      <selection activeCell="F1113" sqref="F1113"/>
+    <sheetView topLeftCell="A1347" workbookViewId="0">
+      <selection activeCell="A1313" sqref="A1313:G1360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31012,6 +31216,1110 @@
         <v>12</v>
       </c>
     </row>
+    <row r="1313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1313" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1313" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1313" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1313" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1313" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1313" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1314" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1314" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1314" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1314" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1314" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1314" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1314" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1315" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1315" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1315" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1315" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1315" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1315" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1316" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1316" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1316" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1316" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1316" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1316" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1317" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1317" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1317" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1317" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1317" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1317" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1318" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1318" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1318" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1318" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1318" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1318" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1318" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1319" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1319" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1319" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1319" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1319" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1319" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1319" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1320" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1320" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1320" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1320" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1320" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1320" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G1320" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1321" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1321" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1321" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1321" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1321" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1321" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1321" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1322" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1322" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1322" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1322" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1322" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1322" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1322" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1323" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1323" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1323" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1323" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1323" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1323" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1324" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1324" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1324" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1324" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1324" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1324" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1324" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1325" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1325" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1325" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1325" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1325" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1325" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1325" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1326" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1326" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1326" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1326" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1326" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1326" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1326" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1327" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1327" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1327" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1327" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1327" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1327" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1328" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1328" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1328" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1328" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1328" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1328" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1328" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1329" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1329" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1329" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1329" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1329" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1329" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1329" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1330" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1330" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1330" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1330" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1330" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1330" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1330" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1331" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1331" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1331" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1331" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1331" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1331" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1331" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1332" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1332" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1332" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1332" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1332" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1332" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1332" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1333" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1333" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1333" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1333" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1333" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1333" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1333" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1334" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1334" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1334" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1334" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1334" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1334" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G1334" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1335" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1335" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1335" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1335" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1335" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F1335" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1335" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1336" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1336" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1336" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1336" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1336" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1336" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1336" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1337" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1337" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1337" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1337" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1337" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="G1337" s="1">
+        <v>-0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1338" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1338" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1338" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1338" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1338" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1338" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1339" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1339" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1339" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1339" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1339" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1339" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1340" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1340" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1340" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1340" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1340" s="1">
+        <v>-0.58208955223880599</v>
+      </c>
+      <c r="F1340" s="1">
+        <v>-0.61224489795918369</v>
+      </c>
+      <c r="G1340" s="1">
+        <v>-0.60317460317460314</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1341" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1341" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1341" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1341" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1341" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1342" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1342" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1342" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1342" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1342" s="1">
+        <v>-0.82</v>
+      </c>
+      <c r="F1342" s="1">
+        <v>-0.79591836734693877</v>
+      </c>
+      <c r="G1342" s="1">
+        <v>-0.92682926829268297</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1343" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1343" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1343" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1343" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1343" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1343" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1344" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1344" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1344" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1344" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1344" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1344" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1344" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1345" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1345" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1345" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1345" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1345" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1345" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1345" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1346" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1346" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1346" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1346" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1346" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1346" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1346" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1347" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1347" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1347" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1347" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1347" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1347" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1347" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1348" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1348" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1348" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1348" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1348" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1348" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1348" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1349" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1349" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1349" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1349" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1349" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1349" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1349" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1350" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1350" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1350" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1350" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1350" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1350" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1350" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1351" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1351" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1351" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1351" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1351" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1351" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1351" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1352" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1352" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1352" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1352" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1352" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1352" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1352" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1353" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1353" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1353" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1353" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1353" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1353" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1353" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1354" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1354" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1354" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1354" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1354" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1354" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1354" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1355" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1355" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1355" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1355" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1355" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1355" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1356" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1356" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1356" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1356" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1356" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1356" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1356" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1357" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1357" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1357" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1357" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1357" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1357" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1357" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1358" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1358" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1358" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1358" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1358" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1358" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1358" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1359" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1359" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1359" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1359" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1359" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1359" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1360" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1360" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1360" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1360" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1360" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1360" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1360" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -31021,6 +32329,1639 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91AAE4E-F98E-4DE7-A6E9-FD82B325945C}">
+  <dimension ref="A1:G70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-0.14285714285714285</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.38297872340425532</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.28260869565217389</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.19354838709677419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-0.27692307692307694</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-0.22033898305084745</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-0.16216216216216217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-0.42857142857142855</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-0.14285714285714285</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-0.32142857142857145</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-0.22222222222222221</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G66" s="1">
+        <v>-9.6774193548387094E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE31997-88D7-44F7-90D1-816B1A98010C}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -32653,7 +35594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20087C79-175C-47AE-AC9F-F4624109F8CF}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -34286,7 +37227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDFA8BF-9A1A-4CE9-8493-9A13E907D7B8}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -35919,7 +38860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A0B529-C7F1-4CBF-BE92-C21FF4459DA2}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -37552,7 +40493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFDCFF7-4492-43CA-8E24-DDC8EFB34A16}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -39185,7 +42126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E31E02-68E5-49B5-ADD2-50257D036E6F}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -40818,7 +43759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CE5B26-50E4-4442-B0BF-14D326C4AC6D}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -42451,7 +45392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10C3BF6-F7B8-472E-8ECF-2ECA3B3167CD}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -44084,7 +47025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F01538-0A64-4062-AA28-F344D6C6A73F}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -45516,7 +48457,1157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90732656-ADAD-4F24-868B-EB55A032D509}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-0.58208955223880599</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-0.61224489795918369</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-0.60317460317460314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-0.82</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-0.79591836734693877</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-0.92682926829268297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C21F83-78BB-4329-96E6-D34CD2B28FA7}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -47149,7 +51240,1640 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488EA0FC-7EF0-44D6-BE13-6F0C9068363D}">
+  <dimension ref="A1:G70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.125</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>0.25</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-4.3478260869565216E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-0.98795180722891562</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="F36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G36">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1.2068965517241379</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1.5873015873015872E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-0.5546875</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>-1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2">
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2">
+        <v>12</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G58" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>0.25</v>
+      </c>
+      <c r="F64">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF89A8-6CED-4CD3-8F26-4FD52226511E}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -48782,1640 +54506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488EA0FC-7EF0-44D6-BE13-6F0C9068363D}">
-  <dimension ref="A1:G70"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-0.125</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>0.25</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-0.25</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-4.3478260869565216E-2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2.7027027027027029E-2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-0.98795180722891562</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="2">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="F34" s="2">
-        <v>3</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36">
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="F36">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G36">
-        <v>1.125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1.2068965517241379</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1.5873015873015872E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>-0.5546875</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2">
-        <v>-0.7</v>
-      </c>
-      <c r="F41" s="2">
-        <v>-0.25</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>-1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45">
-        <v>-1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="2">
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0</v>
-      </c>
-      <c r="G56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="2">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="G58" s="2">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F62" s="2">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G62" s="2">
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0.57692307692307687</v>
-      </c>
-      <c r="G63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64">
-        <v>0.25</v>
-      </c>
-      <c r="F64">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G65" s="2">
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" t="s">
-        <v>48</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5209FE3-8F5C-4685-B209-31C3623AF52D}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -52048,7 +56139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A3EB50-406C-4229-A546-C2F69781746B}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -53681,7 +57772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98F8302-700C-4EBC-BA48-95263E11FC59}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -55314,7 +59405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63F71DE-FDB1-4917-A569-CB21155F431F}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -56947,7 +61038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05944E7-E200-48E9-A2E9-447886546FC8}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -58580,7 +62671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB22D01-6397-456C-9ABD-6CF38750C14B}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -60211,1637 +64302,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91AAE4E-F98E-4DE7-A6E9-FD82B325945C}">
-  <dimension ref="A1:G70"/>
-  <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-0.14285714285714285</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.38297872340425532</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0.28260869565217389</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.19354838709677419</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="1">
-        <v>-0.27692307692307694</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-0.22033898305084745</v>
-      </c>
-      <c r="G39" s="1">
-        <v>-0.16216216216216217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="1">
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="F41" s="1">
-        <v>-0.42857142857142855</v>
-      </c>
-      <c r="G41" s="1">
-        <v>-0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>-0.14285714285714285</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
-        <v>-0.375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="1">
-        <v>-0.32142857142857145</v>
-      </c>
-      <c r="F62" s="1">
-        <v>-0.22222222222222221</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.41176470588235292</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F63" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
-      <c r="F65" s="1">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F66" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="G66" s="1">
-        <v>-9.6774193548387094E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="1">
-        <v>0</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" t="s">
-        <v>48</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Facility folder/Rachuonyo South/Rachuonyo South score.xlsx
+++ b/Facility folder/Rachuonyo South/Rachuonyo South score.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf784fce6dfbb4/Desktop/github project/Homabay-DQA-project/Facility folder/Rachuonyo South/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GEORGE OMONDI\Desktop\GitHub\Homabay-DQA-project\Facility folder\Rachuonyo South\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E9C28CD9-DDD4-4E90-9CA5-AD6E6EFB63DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58023222-3E2D-42CD-8406-976A57024F0A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7854DD48-F741-459C-97F5-792AF4ECC110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="856" activeTab="1" xr2:uid="{8DE6B688-5587-4D82-9223-9C8688AC3068}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="856" xr2:uid="{8DE6B688-5587-4D82-9223-9C8688AC3068}"/>
   </bookViews>
   <sheets>
     <sheet name="APPENDED" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14511" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14511" uniqueCount="81">
   <si>
     <t>Service</t>
   </si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>2nd ANC</t>
-  </si>
-  <si>
-    <t>5 ANC</t>
   </si>
   <si>
     <t>MR3</t>
@@ -705,16 +702,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{EF9F0B17-E5E3-447E-A529-28C1665CF63D}" name="Table21" displayName="Table21" ref="A1:G49" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" headerRowCellStyle="Percent" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{EF9F0B17-E5E3-447E-A529-28C1665CF63D}" name="Table21" displayName="Table21" ref="A1:G49" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Percent" dataCellStyle="Percent">
   <autoFilter ref="A1:G49" xr:uid="{EF9F0B17-E5E3-447E-A529-28C1665CF63D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{ABF91FD2-6A58-42A4-90E9-233F5446814A}" name="Service" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{C3F05099-053B-4806-A19F-B9CB49095927}" name="Facility" dataDxfId="0" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{665FA597-FC66-42BF-B6F0-A694810BA287}" name="Indicators" dataDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{68637000-B319-4A69-B870-8DD5E1DA107B}" name="Comparison" dataDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{126E1C06-1D25-4D8D-89EA-F5CA5BDF5F40}" name="Apr-23" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{5838A24A-9C1C-4388-8E34-6688C00BB5EF}" name="May-23" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{ABDA4DA1-FA0F-4A6E-83EB-B724247351BC}" name="Jun-23" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{ABF91FD2-6A58-42A4-90E9-233F5446814A}" name="Service" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{C3F05099-053B-4806-A19F-B9CB49095927}" name="Facility" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{665FA597-FC66-42BF-B6F0-A694810BA287}" name="Indicators" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{68637000-B319-4A69-B870-8DD5E1DA107B}" name="Comparison" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{126E1C06-1D25-4D8D-89EA-F5CA5BDF5F40}" name="Apr-23" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{5838A24A-9C1C-4388-8E34-6688C00BB5EF}" name="May-23" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{ABDA4DA1-FA0F-4A6E-83EB-B724247351BC}" name="Jun-23" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1163,13 +1160,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04428639-0672-4A4C-B990-8BA518AA8837}">
   <dimension ref="A1:G1360"/>
   <sheetViews>
-    <sheetView topLeftCell="A1347" workbookViewId="0">
-      <selection activeCell="A1313" sqref="A1313:G1360"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
     <col min="4" max="4" width="12.90625" customWidth="1"/>
     <col min="7" max="7" width="8.90625" customWidth="1"/>
   </cols>
@@ -31221,7 +31218,7 @@
         <v>6</v>
       </c>
       <c r="B1313" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1313" s="1" t="s">
         <v>7</v>
@@ -31244,7 +31241,7 @@
         <v>6</v>
       </c>
       <c r="B1314" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1314" s="1" t="s">
         <v>77</v>
@@ -31267,7 +31264,7 @@
         <v>6</v>
       </c>
       <c r="B1315" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1315" s="1" t="s">
         <v>10</v>
@@ -31290,10 +31287,10 @@
         <v>6</v>
       </c>
       <c r="B1316" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1316" s="1" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D1316" s="1" t="s">
         <v>9</v>
@@ -31313,7 +31310,7 @@
         <v>6</v>
       </c>
       <c r="B1317" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1317" s="1" t="s">
         <v>11</v>
@@ -31336,7 +31333,7 @@
         <v>6</v>
       </c>
       <c r="B1318" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1318" s="1" t="s">
         <v>11</v>
@@ -31359,7 +31356,7 @@
         <v>6</v>
       </c>
       <c r="B1319" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1319" s="1" t="s">
         <v>13</v>
@@ -31382,7 +31379,7 @@
         <v>6</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1320" s="1" t="s">
         <v>13</v>
@@ -31405,7 +31402,7 @@
         <v>6</v>
       </c>
       <c r="B1321" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1321" s="1" t="s">
         <v>18</v>
@@ -31428,7 +31425,7 @@
         <v>6</v>
       </c>
       <c r="B1322" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1322" s="1" t="s">
         <v>18</v>
@@ -31451,7 +31448,7 @@
         <v>6</v>
       </c>
       <c r="B1323" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1323" s="1" t="s">
         <v>19</v>
@@ -31474,7 +31471,7 @@
         <v>6</v>
       </c>
       <c r="B1324" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1324" s="1" t="s">
         <v>19</v>
@@ -31497,7 +31494,7 @@
         <v>6</v>
       </c>
       <c r="B1325" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1325" s="1" t="s">
         <v>21</v>
@@ -31520,7 +31517,7 @@
         <v>6</v>
       </c>
       <c r="B1326" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1326" s="1" t="s">
         <v>21</v>
@@ -31543,7 +31540,7 @@
         <v>6</v>
       </c>
       <c r="B1327" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1327" s="1" t="s">
         <v>22</v>
@@ -31566,7 +31563,7 @@
         <v>6</v>
       </c>
       <c r="B1328" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1328" s="1" t="s">
         <v>22</v>
@@ -31589,7 +31586,7 @@
         <v>6</v>
       </c>
       <c r="B1329" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1329" s="1" t="s">
         <v>23</v>
@@ -31612,7 +31609,7 @@
         <v>6</v>
       </c>
       <c r="B1330" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1330" s="1" t="s">
         <v>23</v>
@@ -31635,7 +31632,7 @@
         <v>6</v>
       </c>
       <c r="B1331" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1331" s="1" t="s">
         <v>24</v>
@@ -31658,7 +31655,7 @@
         <v>6</v>
       </c>
       <c r="B1332" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1332" s="1" t="s">
         <v>24</v>
@@ -31681,7 +31678,7 @@
         <v>6</v>
       </c>
       <c r="B1333" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1333" s="1" t="s">
         <v>25</v>
@@ -31704,7 +31701,7 @@
         <v>6</v>
       </c>
       <c r="B1334" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1334" s="1" t="s">
         <v>25</v>
@@ -31727,7 +31724,7 @@
         <v>26</v>
       </c>
       <c r="B1335" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1335" s="1" t="s">
         <v>27</v>
@@ -31750,7 +31747,7 @@
         <v>26</v>
       </c>
       <c r="B1336" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1336" s="1" t="s">
         <v>27</v>
@@ -31773,7 +31770,7 @@
         <v>26</v>
       </c>
       <c r="B1337" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1337" s="1" t="s">
         <v>28</v>
@@ -31796,7 +31793,7 @@
         <v>26</v>
       </c>
       <c r="B1338" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1338" s="1" t="s">
         <v>28</v>
@@ -31819,7 +31816,7 @@
         <v>26</v>
       </c>
       <c r="B1339" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1339" s="1" t="s">
         <v>29</v>
@@ -31842,7 +31839,7 @@
         <v>26</v>
       </c>
       <c r="B1340" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1340" s="1" t="s">
         <v>29</v>
@@ -31865,7 +31862,7 @@
         <v>26</v>
       </c>
       <c r="B1341" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1341" s="1" t="s">
         <v>30</v>
@@ -31888,7 +31885,7 @@
         <v>26</v>
       </c>
       <c r="B1342" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1342" s="1" t="s">
         <v>30</v>
@@ -31911,7 +31908,7 @@
         <v>36</v>
       </c>
       <c r="B1343" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1343" s="1" t="s">
         <v>37</v>
@@ -31934,10 +31931,10 @@
         <v>36</v>
       </c>
       <c r="B1344" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1344" s="1" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D1344" s="1" t="s">
         <v>9</v>
@@ -31957,7 +31954,7 @@
         <v>36</v>
       </c>
       <c r="B1345" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1345" s="1" t="s">
         <v>38</v>
@@ -31980,7 +31977,7 @@
         <v>36</v>
       </c>
       <c r="B1346" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1346" s="1" t="s">
         <v>39</v>
@@ -32003,7 +32000,7 @@
         <v>36</v>
       </c>
       <c r="B1347" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1347" s="1" t="s">
         <v>39</v>
@@ -32026,10 +32023,10 @@
         <v>36</v>
       </c>
       <c r="B1348" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1348" s="1" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D1348" s="1" t="s">
         <v>9</v>
@@ -32049,7 +32046,7 @@
         <v>36</v>
       </c>
       <c r="B1349" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1349" s="1" t="s">
         <v>40</v>
@@ -32072,7 +32069,7 @@
         <v>36</v>
       </c>
       <c r="B1350" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1350" s="1" t="s">
         <v>40</v>
@@ -32095,7 +32092,7 @@
         <v>36</v>
       </c>
       <c r="B1351" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1351" s="1" t="s">
         <v>41</v>
@@ -32118,7 +32115,7 @@
         <v>36</v>
       </c>
       <c r="B1352" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1352" s="1" t="s">
         <v>41</v>
@@ -32141,7 +32138,7 @@
         <v>42</v>
       </c>
       <c r="B1353" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1353" s="1" t="s">
         <v>43</v>
@@ -32164,7 +32161,7 @@
         <v>42</v>
       </c>
       <c r="B1354" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1354" s="1" t="s">
         <v>43</v>
@@ -32187,7 +32184,7 @@
         <v>42</v>
       </c>
       <c r="B1355" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1355" s="1" t="s">
         <v>44</v>
@@ -32210,7 +32207,7 @@
         <v>42</v>
       </c>
       <c r="B1356" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1356" s="1" t="s">
         <v>44</v>
@@ -32233,7 +32230,7 @@
         <v>45</v>
       </c>
       <c r="B1357" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1357" s="1" t="s">
         <v>46</v>
@@ -32256,7 +32253,7 @@
         <v>45</v>
       </c>
       <c r="B1358" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1358" s="1" t="s">
         <v>46</v>
@@ -32279,7 +32276,7 @@
         <v>45</v>
       </c>
       <c r="B1359" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1359" s="1" t="s">
         <v>47</v>
@@ -32302,7 +32299,7 @@
         <v>45</v>
       </c>
       <c r="B1360" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1360" s="1" t="s">
         <v>47</v>
@@ -48461,8 +48458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90732656-ADAD-4F24-868B-EB55A032D509}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48500,7 +48497,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -48523,7 +48520,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>77</v>
@@ -48546,7 +48543,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -48569,10 +48566,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -48592,7 +48589,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -48615,7 +48612,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -48638,7 +48635,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -48661,7 +48658,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -48684,7 +48681,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -48707,7 +48704,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -48730,7 +48727,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -48753,7 +48750,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -48776,7 +48773,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -48799,7 +48796,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -48822,7 +48819,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
@@ -48845,7 +48842,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>22</v>
@@ -48868,7 +48865,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -48891,7 +48888,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -48914,7 +48911,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>24</v>
@@ -48937,7 +48934,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>24</v>
@@ -48960,7 +48957,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>25</v>
@@ -48983,7 +48980,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>25</v>
@@ -49006,7 +49003,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>27</v>
@@ -49029,7 +49026,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>27</v>
@@ -49052,7 +49049,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
@@ -49075,7 +49072,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -49098,7 +49095,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>29</v>
@@ -49121,7 +49118,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>29</v>
@@ -49144,7 +49141,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>30</v>
@@ -49167,7 +49164,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>30</v>
@@ -49190,7 +49187,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>37</v>
@@ -49213,10 +49210,10 @@
         <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
@@ -49236,7 +49233,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>38</v>
@@ -49259,7 +49256,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>39</v>
@@ -49282,7 +49279,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>39</v>
@@ -49305,10 +49302,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
@@ -49328,7 +49325,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>40</v>
@@ -49351,7 +49348,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>40</v>
@@ -49374,7 +49371,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>41</v>
@@ -49397,7 +49394,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>41</v>
@@ -49420,7 +49417,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>43</v>
@@ -49443,7 +49440,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>43</v>
@@ -49466,7 +49463,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>44</v>
@@ -49489,7 +49486,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>44</v>
@@ -49512,7 +49509,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>46</v>
@@ -49535,7 +49532,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>46</v>
@@ -49558,7 +49555,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>47</v>
@@ -49581,7 +49578,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>47</v>
@@ -52877,7 +52874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF89A8-6CED-4CD3-8F26-4FD52226511E}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G70"/>
     </sheetView>
   </sheetViews>
@@ -56143,7 +56140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A3EB50-406C-4229-A546-C2F69781746B}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G70"/>
     </sheetView>
   </sheetViews>
